--- a/v2/static/excel/options.xlsx
+++ b/v2/static/excel/options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Matias\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatih ÇELİK\Documents\GitHub\rchesapla\v2\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4489EB97-F15C-4002-94DB-5D5CCA77C216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7346318-F4E9-4824-9987-6E100F052744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8AAB1C5C-8125-4FE6-9053-AE63C8AE7A02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AAB1C5C-8125-4FE6-9053-AE63C8AE7A02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,13 +501,7 @@
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -525,25 +519,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,164 +643,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -825,7 +805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1123,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C2C811-E0D3-47A2-955E-E17712283756}">
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1140,542 +1120,539 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="5"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="15">
         <v>3</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="16">
         <v>4</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="16">
         <v>5</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="26" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="18">
         <v>8</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="19">
         <v>11</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="19">
         <v>13</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="18">
         <v>15</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="29" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>555</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="21">
         <f>F6*140</f>
         <v>1120</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="22">
         <f t="shared" ref="G7:I7" si="0">G6*140</f>
         <v>1540</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="22">
         <f t="shared" si="0"/>
         <v>1820</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="21">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="28">
         <v>15</v>
       </c>
-      <c r="F8" s="38">
-        <v>9</v>
-      </c>
-      <c r="G8" s="39">
-        <v>9</v>
-      </c>
-      <c r="H8" s="39">
-        <v>9</v>
-      </c>
-      <c r="I8" s="37">
+      <c r="F8" s="29">
+        <v>9</v>
+      </c>
+      <c r="G8" s="30">
+        <v>9</v>
+      </c>
+      <c r="H8" s="30">
+        <v>9</v>
+      </c>
+      <c r="I8" s="28">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="D9" s="40" t="s">
+      <c r="B9" s="63"/>
+      <c r="D9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="24">
         <v>15</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35">
+      <c r="F9" s="25"/>
+      <c r="G9" s="26">
         <v>4</v>
       </c>
-      <c r="H9" s="35">
-        <v>9</v>
-      </c>
-      <c r="I9" s="33">
+      <c r="H9" s="26">
+        <v>9</v>
+      </c>
+      <c r="I9" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
+      <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="24">
         <v>15</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="32">
         <v>7</v>
       </c>
-      <c r="G10" s="35">
-        <v>9</v>
-      </c>
-      <c r="H10" s="35">
-        <v>9</v>
-      </c>
-      <c r="I10" s="33">
+      <c r="G10" s="26">
+        <v>9</v>
+      </c>
+      <c r="H10" s="26">
+        <v>9</v>
+      </c>
+      <c r="I10" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
+      <c r="B11" s="12">
         <v>3</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="24">
         <v>15</v>
       </c>
-      <c r="F11" s="41">
-        <v>9</v>
-      </c>
-      <c r="G11" s="35">
-        <v>9</v>
-      </c>
-      <c r="H11" s="35">
-        <v>9</v>
-      </c>
-      <c r="I11" s="33">
+      <c r="F11" s="32">
+        <v>9</v>
+      </c>
+      <c r="G11" s="26">
+        <v>9</v>
+      </c>
+      <c r="H11" s="26">
+        <v>9</v>
+      </c>
+      <c r="I11" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+      <c r="B12" s="12">
         <v>5</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="24">
         <v>5</v>
       </c>
-      <c r="F12" s="41">
-        <v>9</v>
-      </c>
-      <c r="G12" s="35">
-        <v>9</v>
-      </c>
-      <c r="H12" s="35">
-        <v>9</v>
-      </c>
-      <c r="I12" s="33">
+      <c r="F12" s="32">
+        <v>9</v>
+      </c>
+      <c r="G12" s="26">
+        <v>9</v>
+      </c>
+      <c r="H12" s="26">
+        <v>9</v>
+      </c>
+      <c r="I12" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21">
+      <c r="B13" s="12">
         <v>8</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="24">
         <v>5</v>
       </c>
-      <c r="F13" s="41">
-        <v>9</v>
-      </c>
-      <c r="G13" s="35">
-        <v>9</v>
-      </c>
-      <c r="H13" s="35">
-        <v>9</v>
-      </c>
-      <c r="I13" s="33">
-        <v>9</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7" t="s">
+      <c r="F13" s="32">
+        <v>9</v>
+      </c>
+      <c r="G13" s="26">
+        <v>9</v>
+      </c>
+      <c r="H13" s="26">
+        <v>9</v>
+      </c>
+      <c r="I13" s="24">
+        <v>9</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
+      <c r="B14" s="12">
         <v>10</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="D14" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="24">
         <v>5</v>
       </c>
-      <c r="F14" s="41">
-        <v>9</v>
-      </c>
-      <c r="G14" s="35">
-        <v>9</v>
-      </c>
-      <c r="H14" s="35">
-        <v>9</v>
-      </c>
-      <c r="I14" s="33">
-        <v>9</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="7" t="s">
+      <c r="F14" s="32">
+        <v>9</v>
+      </c>
+      <c r="G14" s="26">
+        <v>9</v>
+      </c>
+      <c r="H14" s="26">
+        <v>9</v>
+      </c>
+      <c r="I14" s="24">
+        <v>9</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+      <c r="B15" s="12">
         <v>15</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="24">
         <v>5</v>
       </c>
-      <c r="F15" s="41">
-        <v>9</v>
-      </c>
-      <c r="G15" s="35">
-        <v>9</v>
-      </c>
-      <c r="H15" s="35">
-        <v>9</v>
-      </c>
-      <c r="I15" s="33">
-        <v>9</v>
-      </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="7" t="s">
+      <c r="F15" s="32">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26">
+        <v>9</v>
+      </c>
+      <c r="H15" s="26">
+        <v>9</v>
+      </c>
+      <c r="I15" s="24">
+        <v>9</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21">
+      <c r="B16" s="12">
         <v>20</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="24">
         <v>5</v>
       </c>
-      <c r="F16" s="41">
-        <v>9</v>
-      </c>
-      <c r="G16" s="35">
-        <v>9</v>
-      </c>
-      <c r="H16" s="35">
-        <v>9</v>
-      </c>
-      <c r="I16" s="33">
-        <v>9</v>
-      </c>
-      <c r="K16" s="50" t="s">
+      <c r="F16" s="32">
+        <v>9</v>
+      </c>
+      <c r="G16" s="26">
+        <v>9</v>
+      </c>
+      <c r="H16" s="26">
+        <v>9</v>
+      </c>
+      <c r="I16" s="24">
+        <v>9</v>
+      </c>
+      <c r="K16" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="40" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="24">
         <v>15</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35">
-        <v>9</v>
-      </c>
-      <c r="H17" s="35">
-        <v>9</v>
-      </c>
-      <c r="I17" s="33">
-        <v>9</v>
-      </c>
-      <c r="K17" s="51" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="26">
+        <v>9</v>
+      </c>
+      <c r="H17" s="26">
+        <v>9</v>
+      </c>
+      <c r="I17" s="24">
+        <v>9</v>
+      </c>
+      <c r="K17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="24">
         <v>40</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35">
+      <c r="F18" s="25"/>
+      <c r="G18" s="26">
         <v>2</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="26">
         <v>4</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="24">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="34">
         <v>60</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45">
+      <c r="F19" s="35"/>
+      <c r="G19" s="36">
         <f>G18</f>
         <v>2</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="36">
         <f>H18</f>
         <v>4</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="34">
         <f>I18</f>
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="19" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="13">
+      <c r="E21" s="51"/>
+      <c r="F21" s="9">
         <v>522</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="9">
         <v>522</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="9">
         <v>522</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="10">
         <v>522</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="48">
         <f>SUMPRODUCT($E$8:$E$19,F8:F19)+F21</f>
         <v>1122</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="46">
         <f>SUMPRODUCT($E$8:$E$19,G8:G19)+G21</f>
         <v>1547</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="46">
         <f>SUMPRODUCT($E$8:$E$19,H8:H19)+H21</f>
         <v>1822</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="44">
         <f>SUMPRODUCT($E$8:$E$19,I8:I19)+I21</f>
         <v>2107</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="18"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="20" t="s">
+      <c r="E25" s="56"/>
+      <c r="F25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="57"/>
       <c r="E26" s="58"/>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="59"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="57"/>
       <c r="E27" s="58"/>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="59"/>
+      <c r="I27" s="53"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="57"/>
       <c r="E28" s="58"/>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="59"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="64" t="s">
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="62"/>
+      <c r="I29" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="I25:I29"/>
     <mergeCell ref="D25:E29"/>
     <mergeCell ref="I1:I2"/>
@@ -1688,48 +1665,53 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:I19 F21:I21">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
       <formula>1</formula>
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F23">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>$F$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>$F$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>$G$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>$G$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$I$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$I$7</formula>
     </cfRule>
   </conditionalFormatting>
